--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,84 +43,84 @@
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>guilty</t>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>addicted</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>stupid</t>
   </si>
   <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
     <t>weird</t>
   </si>
   <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>fucking</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -133,52 +133,58 @@
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>new</t>
+    <t>highly</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>true</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
   </si>
   <si>
     <t>netflix</t>
@@ -556,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -670,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -720,10 +726,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -767,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9333333333333333</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K6">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9333333333333333</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +841,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9242424242424242</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9134615384615384</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C9">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K9">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +973,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K10">
-        <v>0.5172413793103449</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>44</v>
@@ -1067,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,13 +1097,13 @@
         <v>45</v>
       </c>
       <c r="K12">
-        <v>0.5</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,7 +1123,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7777777777777778</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -1135,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K13">
-        <v>0.3157894736842105</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K14">
-        <v>0.2962962962962963</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,37 +1223,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K15">
-        <v>0.2121212121212121</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.625</v>
+        <v>0.5289855072463768</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K16">
-        <v>0.1666666666666667</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L16">
         <v>8</v>
@@ -1309,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K17">
-        <v>0.1538461538461539</v>
+        <v>0.125</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,13 +1397,13 @@
         <v>51</v>
       </c>
       <c r="K18">
-        <v>0.1016949152542373</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="L18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,10 +1426,10 @@
         <v>0.5</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K19">
-        <v>0.0883424408014572</v>
+        <v>0.1147540983606557</v>
       </c>
       <c r="L19">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1001</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,13 +1497,13 @@
         <v>53</v>
       </c>
       <c r="K20">
-        <v>0.08450704225352113</v>
+        <v>0.07285974499089254</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>65</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.463768115942029</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C21">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1541,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K21">
-        <v>0.0286144578313253</v>
+        <v>0.0353356890459364</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1559,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>645</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1573,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.45</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K22">
-        <v>0.01111111111111111</v>
+        <v>0.02560240963855422</v>
       </c>
       <c r="L22">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>534</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4375</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,13 +1641,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K23">
-        <v>0.007682458386683738</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="L23">
         <v>6</v>
@@ -1659,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>775</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1667,13 +1673,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3928571428571428</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1685,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K24">
-        <v>0.004608294930875576</v>
+        <v>0.01296296296296296</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1709,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1728</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1717,13 +1723,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3846153846153846</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1735,7 +1741,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25">
+        <v>0.01152368758002561</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="M25">
+        <v>9</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1743,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3478260869565217</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="C26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1761,7 +1791,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26">
+        <v>0.003456221198156682</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1730</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1769,13 +1823,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3428571428571429</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1787,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1795,13 +1849,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3404255319148936</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1813,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1821,13 +1875,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3076923076923077</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1839,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1847,13 +1901,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1153846153846154</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1865,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
